--- a/data/trans_camb/P25A_9_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_9_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
         </is>
       </c>
     </row>
@@ -649,22 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,58</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,74</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,93</t>
         </is>
       </c>
     </row>
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -767,22 +858,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>4,48</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
         </is>
       </c>
     </row>
@@ -805,22 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 4,81</t>
+          <t>-5,45; 3,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 0,99</t>
+          <t>-3,45; 8,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,09</t>
+          <t>-1,69; 18,49</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 1,6</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 3,22</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 8,5</t>
         </is>
       </c>
     </row>
@@ -843,22 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>-8,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,25%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>81,17%</t>
+          <t>263,08%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-13,02%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>77,69%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>205,61%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -923,22 +1074,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -961,22 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 3,5</t>
+          <t>-4,86; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,28</t>
+          <t>-2,99; 1,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,92</t>
+          <t>-2,08; 4,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 0,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 1,13</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 2,1</t>
         </is>
       </c>
     </row>
@@ -999,22 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>126,27%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>-4,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>121,4%</t>
+          <t>80,03%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-8,77%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>65,82%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-2,07</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-2,29</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-2,98</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 1,77</t>
+          <t>-4,13; 2,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 1,86</t>
+          <t>-4,93; 2,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 3,29</t>
+          <t>-2,77; 6,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 3,7</t>
+          <t>-11,44; 1,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,59</t>
+          <t>-12,18; 0,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,34</t>
+          <t>-9,03; 4,81</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-6,27; 1,45</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-7,07; 0,35</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-4,72; 3,68</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-38,56%</t>
+          <t>-3,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-38,11%</t>
+          <t>-27,71%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-20,51%</t>
+          <t>91,34%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-13,72%</t>
+          <t>-57,52%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-25,27%</t>
+          <t>-70,82%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-21,08%</t>
+          <t>-28,38%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-50,21%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-65,26%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-13,17%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1449,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-69,0; 111,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-73,45; 120,2</t>
+          <t>-100,0; 64,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-71,66; 72,82</t>
+          <t>-100,0; 55,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,56; 104,51</t>
+          <t>-83,08; 184,56</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-89,78; 86,25</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-72,31; 180,23</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>5,23</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7,02</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,74</t>
+          <t>0,0; 8,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 5,22</t>
+          <t>0,0; 7,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 7,36</t>
+          <t>2,9; 17,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 7,04</t>
+          <t>-9,44; 7,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 4,26</t>
+          <t>-9,26; 9,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 5,01</t>
+          <t>-4,56; 19,32</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 5,46</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 5,11</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 14,16</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>-0,62%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>93,6%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>62,22%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>38,26%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>299,6%</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1665,37 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-66,36; 270,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-64,23; 297,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-62,72; 283,69</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-49,12; 308,39</t>
+          <t>-73,42; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-82,86; 720,89</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-23,06; 1638,29</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-5,54</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>-8,64</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>13,07</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-7,33</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-2,89</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>10,75</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 2,09</t>
+          <t>-17,99; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-17,26; -0,45</t>
+          <t>-17,99; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 0,9</t>
+          <t>-5,22; 21,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 15,46</t>
+          <t>-19,24; 0,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,99; -1,0</t>
+          <t>-13,28; 13,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 6,03</t>
+          <t>-2,67; 32,82</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-14,08; -1,18</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-11,09; 5,07</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 22,59</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-56,82%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-78,08%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-58,5%</t>
+          <t>134,1%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>-77,93%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-57,71%</t>
+          <t>-5,47%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-22,19%</t>
+          <t>117,87%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-84,57%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-33,35%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>124,05%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1881,37 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-87,81; 30,62</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-62,93; 228,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-82,16; -1,75</t>
+          <t>-83,44; 328,2</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-68,63; 95,56</t>
+          <t>-32,85; 678,23</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 79,32</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-88,91; 150,0</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 489,3</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>4,13</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3,21</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,42</t>
+          <t>-1,82; 1,03</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,16</t>
+          <t>-2,12; 0,49</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,83</t>
+          <t>0,36; 5,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,17</t>
+          <t>-4,69; 0,18</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 0,18</t>
+          <t>-3,58; 1,99</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,23</t>
+          <t>0,24; 9,18</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 0,05</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 0,58</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 5,9</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-43,6%</t>
+          <t>-25,85%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-51,93%</t>
+          <t>-56,31%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-26,74%</t>
+          <t>251,91%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>-49,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-32,21%</t>
+          <t>-22,52%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-7,97%</t>
+          <t>99,5%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-45,78%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-30,91%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>119,93%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-79,79; 49,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-84,91; 34,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-60,59; 31,75</t>
+          <t>-22,89; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 97,3</t>
+          <t>-80,11; 14,01</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-58,41; 9,22</t>
+          <t>-65,05; 88,37</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-41,49; 54,45</t>
+          <t>-1,91; 308,74</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-77,14; 3,48</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-69,16; 30,53</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>24,44; 308,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
